--- a/biology/Botanique/Brugmansia_candida/Brugmansia_candida.xlsx
+++ b/biology/Botanique/Brugmansia_candida/Brugmansia_candida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brugmansia candida, également connue sous le nom de trompette flaccide, est une espèce de plantes de la famille des Solanaceae et du genre Brugmansia. 
 Originaire de Bolivie, Colombie et Pérou, c'est un arbuste de 2 à 5 m de haut aux grandes fleurs blanches pendantes dont toutes les parties sont toxiques.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brugmansia candida est un arbuste à feuilles persistantes ou un petit arbre atteignant jusqu'à 7 mètres (23 pieds) de hauteur. Les feuilles ovales ont des marges grossièrement dentées lorsqu'elles sont dans leur meilleur état. Les feuilles, les tiges florales, les fruits et surtout les jeunes pousses sont recouverts d'un fin duvet blanc velouté. Les fleurs sont fortement parfumées, en forme de trompette, penchées à sub-horizontales, blanches à blanc ivoire ou crème. À 12-17 centimètres (4,7-6,7 pouces) de long, les fleurs sont les plus courtes de tous les Brugmansia . Les fleurs sont produites presque en continu en plus petites quantités, contrairement à beaucoup d'autres Brugmansiacette fleur en plus grandes bouffées. Les fruits ovoïdes ont une longueur moyenne de 6 centimètres (2,4 pouces) et une largeur de 4,5 centimètres (1,8 pouces). Le calice est fendu sur un côté et est très long par rapport à la fleur, et à cet égard est souvent utilisé comme un contrôle rapide pour vérifier l'identification correcte. À quelques exceptions près, le calice vert descend généralement presque jusqu'à la bouche de la corolle de la fleur.
 </t>
@@ -543,9 +557,11 @@
           <t>Caractère envahissant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 août 2014)[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 août 2014)
 Brugmansia x candida
 Brugmansia aurea x Brugmansia versicolor</t>
         </is>
